--- a/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/StructureDefinition-ror-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="342">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-practitioner</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-practitioner</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T13:01:23+00:00</t>
+    <t>2023-02-15T16:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Profil créée dans le cadre du ROR pour décrire les données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -451,22 +451,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Practitioner.extension:mailBoxMSS</t>
-  </si>
-  <si>
-    <t>mailBoxMSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/mailboxMSS}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -577,7 +561,39 @@
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
-    <t>Practitioner.name.id</t>
+    <t>Practitioner.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner (that apply to all roles)</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
+  </si>
+  <si>
+    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>PRT-15, STF-10, ROL-12</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>./ContactPoints</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -593,390 +609,204 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Practitioner.name.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Practitioner.telecom.extension</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Practitioner.name.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+    <t>Practitioner.telecom.extension:usage</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-usage}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension:ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t>ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-confidentiality-level}
+</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension:ror-communication-channel</t>
+  </si>
+  <si>
+    <t>ror-communication-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-communication-channel}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>XPN.7, but often indicated by which field contains the name</t>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t>ele-1
+cpt-2</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
   </si>
   <si>
     <t>unique(./use)</t>
   </si>
   <si>
-    <t>./NamePurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.name.text</t>
-  </si>
-  <si>
-    <t>Text representation of the full name</t>
-  </si>
-  <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>HumanName.text</t>
-  </si>
-  <si>
-    <t>implied by XPN.11</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>Practitioner.name.family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
-    <t>Family name (often called 'Surname')</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
-  </si>
-  <si>
-    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
-  </si>
-  <si>
-    <t>HumanName.family</t>
-  </si>
-  <si>
-    <t>XPN.1/FN.1</t>
-  </si>
-  <si>
-    <t>./part[partType = FAM]</t>
-  </si>
-  <si>
-    <t>./FamilyName</t>
-  </si>
-  <si>
-    <t>Practitioner.name.given</t>
-  </si>
-  <si>
-    <t>first name
-middle name</t>
-  </si>
-  <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
-  </si>
-  <si>
-    <t>Given name.</t>
-  </si>
-  <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
-  </si>
-  <si>
-    <t>HumanName.given</t>
-  </si>
-  <si>
-    <t>XPN.2 + XPN.3</t>
-  </si>
-  <si>
-    <t>./part[partType = GIV]</t>
-  </si>
-  <si>
-    <t>./GivenNames</t>
-  </si>
-  <si>
-    <t>Practitioner.name.prefix</t>
-  </si>
-  <si>
-    <t>Parts that come before the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>HumanName.prefix</t>
-  </si>
-  <si>
-    <t>XPN.5</t>
-  </si>
-  <si>
-    <t>./part[partType = PFX]</t>
-  </si>
-  <si>
-    <t>./TitleCode</t>
-  </si>
-  <si>
-    <t>Practitioner.name.suffix</t>
-  </si>
-  <si>
-    <t>Parts that come after the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
-  </si>
-  <si>
-    <t>http://esante.gouv.fr/fhir/ror/StructureDefinition</t>
-  </si>
-  <si>
-    <t>HumanName.suffix</t>
-  </si>
-  <si>
-    <t>XPN/4</t>
-  </si>
-  <si>
-    <t>./part[partType = SFX]</t>
-  </si>
-  <si>
-    <t>Practitioner.name.period</t>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Time period when name was/is in use</t>
-  </si>
-  <si>
-    <t>Indicates the period of time when this name was valid for the named person.</t>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
 Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
   </si>
   <si>
-    <t>Allows names to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>HumanName.period</t>
+    <t>ContactPoint.period</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
-    <t>XPN.13 + XPN.14</t>
-  </si>
-  <si>
     <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner (that apply to all roles)</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
-  </si>
-  <si>
-    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
-  </si>
-  <si>
-    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>PRT-15, STF-10, ROL-12</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.id</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:usage</t>
-  </si>
-  <si>
-    <t>usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage}
-</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:ConfidentialityLevel</t>
-  </si>
-  <si>
-    <t>ConfidentialityLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-confidentiality-level}
-</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J225-CanalCommunication-ROR/FHIR/JDV-J225-CanalCommunication-ROR</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t>ele-1
-cpt-2</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>./ContactPointType</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
   </si>
   <si>
     <t>Practitioner.address</t>
@@ -1118,6 +948,9 @@
   </si>
   <si>
     <t>Practitioner.qualification.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Practitioner.qualification.modifierExtension</t>
@@ -1549,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AN37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1558,9 +1391,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.2578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="30.4921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1568,7 +1401,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.02734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.65234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1583,7 +1416,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.06640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="102.06640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2634,13 +2467,11 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2653,22 +2484,26 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
       </c>
@@ -2704,19 +2539,19 @@
         <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2752,38 +2587,36 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2820,19 +2653,19 @@
         <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2844,27 +2677,27 @@
         <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2872,7 +2705,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>84</v>
@@ -2887,72 +2720,76 @@
         <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="P12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>96</v>
@@ -2961,24 +2798,24 @@
         <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2989,7 +2826,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -3001,76 +2838,74 @@
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>96</v>
@@ -3079,24 +2914,24 @@
         <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3107,7 +2942,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -3119,19 +2954,19 @@
         <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -3180,7 +3015,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3192,16 +3027,16 @@
         <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -3209,10 +3044,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3235,13 +3070,13 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3292,7 +3127,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3321,18 +3156,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>76</v>
@@ -3350,14 +3185,12 @@
         <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3406,7 +3239,7 @@
         <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3424,7 +3257,7 @@
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3435,12 +3268,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3455,26 +3290,22 @@
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3498,52 +3329,52 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3551,18 +3382,20 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>84</v>
@@ -3574,23 +3407,19 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3638,25 +3467,25 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3667,18 +3496,20 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>84</v>
@@ -3690,20 +3521,18 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -3752,28 +3581,28 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3781,21 +3610,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3807,16 +3636,16 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3842,13 +3671,13 @@
         <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>74</v>
@@ -3866,28 +3695,28 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
@@ -3895,10 +3724,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3906,10 +3735,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3921,18 +3750,20 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3980,13 +3811,13 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>96</v>
@@ -3995,13 +3826,13 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>74</v>
@@ -4009,10 +3840,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4029,24 +3860,26 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4070,11 +3903,13 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -4092,13 +3927,13 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>96</v>
@@ -4107,13 +3942,13 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>74</v>
@@ -4121,10 +3956,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4147,20 +3982,18 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4208,7 +4041,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4220,16 +4053,16 @@
         <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>247</v>
+        <v>105</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4237,10 +4070,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4263,20 +4096,18 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4324,28 +4155,28 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>257</v>
+        <v>98</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4353,10 +4184,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4367,7 +4198,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4376,19 +4207,23 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4436,28 +4271,28 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>74</v>
@@ -4476,11 +4311,11 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4488,10 +4323,10 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>262</v>
@@ -4499,8 +4334,12 @@
       <c r="M26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4524,52 +4363,52 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4577,14 +4416,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4602,19 +4439,21 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4662,28 +4501,28 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>74</v>
+        <v>277</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>74</v>
@@ -4691,20 +4530,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>76</v>
@@ -4719,16 +4556,20 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4776,7 +4617,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4788,16 +4629,16 @@
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4805,10 +4646,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4816,10 +4657,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4828,20 +4669,18 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4866,11 +4705,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4888,28 +4729,28 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>275</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4917,10 +4758,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4928,7 +4769,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>84</v>
@@ -4940,23 +4781,19 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5004,7 +4841,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5013,19 +4850,19 @@
         <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>286</v>
+        <v>105</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5033,46 +4870,44 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5096,52 +4931,52 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>192</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>74</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5156,26 +4991,26 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>300</v>
@@ -5184,9 +5019,11 @@
         <v>301</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5234,25 +5071,25 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5263,10 +5100,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5277,7 +5114,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5286,21 +5123,21 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5348,28 +5185,28 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>98</v>
+        <v>307</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5377,10 +5214,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5388,10 +5225,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5400,23 +5237,21 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5440,13 +5275,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5464,13 +5299,13 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>96</v>
@@ -5479,13 +5314,13 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5493,10 +5328,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5516,22 +5351,22 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5556,13 +5391,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5580,7 +5415,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5592,16 +5427,16 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5609,10 +5444,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5632,21 +5467,21 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
         <v>330</v>
       </c>
+      <c r="N36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5694,7 +5529,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5706,16 +5541,16 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>332</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5749,19 +5584,19 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5786,13 +5621,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5822,1046 +5657,18 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AN37" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="P44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="P46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AN46" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T16:25:23+00:00</t>
+    <t>2023-02-16T13:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/StructureDefinition-ror-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="383">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:28:22+00:00</t>
+    <t>2023-02-17T16:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -317,13 +317,193 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Practitioner.implicitRules</t>
+    <t>Practitioner.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Practitioner.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -334,9 +514,6 @@
   </si>
   <si>
     <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Practitioner.language</t>
@@ -419,38 +596,10 @@
     <t>Practitioner.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -596,19 +745,6 @@
     <t>Practitioner.telecom.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Practitioner.telecom.extension</t>
   </si>
   <si>
@@ -619,9 +755,6 @@
   </si>
   <si>
     <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Practitioner.telecom.extension:usage</t>
@@ -675,9 +808,6 @@
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
@@ -948,9 +1078,6 @@
   </si>
   <si>
     <t>Practitioner.qualification.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Practitioner.qualification.modifierExtension</t>
@@ -1382,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1415,8 +1542,8 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.06640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.53515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1793,7 +1920,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>84</v>
@@ -1914,10 +2041,10 @@
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>100</v>
@@ -1928,9 +2055,7 @@
       <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>74</v>
@@ -1979,7 +2104,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -1988,16 +2113,16 @@
         <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>74</v>
@@ -2008,21 +2133,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2069,28 +2194,28 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>114</v>
@@ -2099,19 +2224,19 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>74</v>
@@ -2122,14 +2247,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2145,19 +2270,19 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2207,7 +2332,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2225,7 +2350,7 @@
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -2236,21 +2361,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -2259,19 +2384,19 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2321,25 +2446,25 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -2350,21 +2475,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -2373,19 +2498,19 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2423,37 +2548,37 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -2464,14 +2589,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2484,26 +2609,24 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J10" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
       </c>
@@ -2539,19 +2662,19 @@
         <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2563,13 +2686,13 @@
         <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -2580,10 +2703,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2591,10 +2714,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2606,18 +2729,18 @@
         <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2641,13 +2764,13 @@
         <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>74</v>
@@ -2665,7 +2788,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2680,24 +2803,24 @@
         <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2720,76 +2843,70 @@
         <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>96</v>
@@ -2798,24 +2915,24 @@
         <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2826,32 +2943,30 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>74</v>
       </c>
@@ -2899,13 +3014,13 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>96</v>
@@ -2914,13 +3029,13 @@
         <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>74</v>
@@ -2928,10 +3043,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2951,23 +3066,21 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
@@ -2991,13 +3104,13 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -3015,28 +3128,28 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -3044,14 +3157,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3070,15 +3183,17 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3127,7 +3242,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3136,16 +3251,16 @@
         <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3156,18 +3271,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>76</v>
@@ -3182,15 +3297,17 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3227,19 +3344,19 @@
         <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3248,16 +3365,16 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3268,23 +3385,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3296,15 +3411,17 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3341,19 +3458,19 @@
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3365,13 +3482,13 @@
         <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -3382,44 +3499,46 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3455,19 +3574,19 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3479,13 +3598,13 @@
         <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3496,14 +3615,12 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3521,19 +3638,21 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3581,7 +3700,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3593,27 +3712,27 @@
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3636,22 +3755,26 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="R20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3671,13 +3794,13 @@
         <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>74</v>
@@ -3695,7 +3818,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3704,30 +3827,30 @@
         <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>74</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3735,10 +3858,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3750,19 +3873,19 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -3811,13 +3934,13 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>96</v>
@@ -3826,13 +3949,13 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>74</v>
@@ -3840,10 +3963,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3860,25 +3983,25 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -3903,13 +4026,13 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -3927,28 +4050,28 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>74</v>
@@ -3956,10 +4079,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3979,20 +4102,18 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4041,7 +4162,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4050,16 +4171,16 @@
         <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
@@ -4070,10 +4191,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4081,10 +4202,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4093,20 +4214,18 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4143,40 +4262,40 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>249</v>
+        <v>115</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4184,12 +4303,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4198,7 +4319,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4207,23 +4328,19 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4271,7 +4388,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>114</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4283,16 +4400,16 @@
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>74</v>
@@ -4300,18 +4417,20 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>84</v>
@@ -4323,23 +4442,19 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4363,13 +4478,13 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -4387,28 +4502,28 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>269</v>
+        <v>74</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4416,18 +4531,20 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
@@ -4439,21 +4556,19 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>274</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4501,28 +4616,28 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>270</v>
+        <v>114</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>275</v>
+        <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>74</v>
@@ -4530,10 +4645,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4544,7 +4659,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4553,23 +4668,21 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>279</v>
+        <v>163</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4593,13 +4706,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4617,28 +4730,28 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>255</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>284</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4646,10 +4759,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4657,10 +4770,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4669,19 +4782,23 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>289</v>
+        <v>100</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4729,13 +4846,13 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>96</v>
@@ -4744,13 +4861,13 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4758,10 +4875,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4778,22 +4895,26 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4817,13 +4938,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -4841,7 +4962,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4850,19 +4971,19 @@
         <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>105</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -4870,21 +4991,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -4893,19 +5014,19 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>135</v>
+        <v>283</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4943,37 +5064,37 @@
         <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -4984,46 +5105,44 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5071,28 +5190,28 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>140</v>
+        <v>291</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>98</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5100,10 +5219,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5123,20 +5242,22 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5185,7 +5306,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5200,13 +5321,13 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5214,10 +5335,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5225,7 +5346,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>84</v>
@@ -5237,21 +5358,23 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>311</v>
+        <v>163</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5275,13 +5398,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>315</v>
+        <v>154</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5299,10 +5422,10 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>84</v>
@@ -5314,13 +5437,13 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5328,10 +5451,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5351,22 +5474,20 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5415,7 +5536,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5427,16 +5548,16 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>249</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5444,10 +5565,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5458,7 +5579,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5470,18 +5591,20 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5529,28 +5652,28 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>74</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5558,10 +5681,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5584,20 +5707,16 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5621,13 +5740,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5645,7 +5764,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5660,15 +5779,931 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="B40" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="M40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/StructureDefinition-ror-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="397">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-practitioner</t>
+    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-practitioner</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:29:47+00:00</t>
+    <t>2023-02-22T17:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil créée dans le cadre du ROR pour décrire les données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel</t>
+    <t>Extension créée dans le cadre du ROR</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -317,26 +317,106 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Practitioner.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>Practitioner.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>Practitioner.meta.extension</t>
+    <t>Practitioner.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Practitioner.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Practitioner.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Practitioner.extension</t>
   </si>
   <si>
     <t>extensions
@@ -350,7 +430,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -366,240 +446,27 @@
     <t>open</t>
   </si>
   <si>
-    <t>Element.extension</t>
+    <t>DomainResource.extension</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Practitioner.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Practitioner.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
+    <t>Practitioner.extension:mailBoxMSS</t>
+  </si>
+  <si>
+    <t>mailBoxMSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/mailboxMSS}
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Practitioner.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Practitioner.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Practitioner.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Practitioner.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Practitioner.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Practitioner.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Practitioner.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Practitioner.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Practitioner.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -710,6 +577,228 @@
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
+    <t>Practitioner.name.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Practitioner.name.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./NamePurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>./FamilyName</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>./GivenNames</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>./TitleCode</t>
+  </si>
+  <si>
+    <t>Practitioner.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>http://esante.gouv.fr/fhir/ror/StructureDefinition</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>Practitioner.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
     <t>Practitioner.telecom</t>
   </si>
   <si>
@@ -748,9 +837,6 @@
     <t>Practitioner.telecom.extension</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -763,39 +849,20 @@
     <t>usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:ror-telecom-confidentiality-level</t>
-  </si>
-  <si>
-    <t>ror-telecom-confidentiality-level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-confidentiality-level}
+    <t>Practitioner.telecom.extension:ConfidentialityLevel</t>
+  </si>
+  <si>
+    <t>ConfidentialityLevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-confidentiality-level}
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:ror-communication-channel</t>
-  </si>
-  <si>
-    <t>ror-communication-channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-communication-channel}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
-  </si>
-  <si>
     <t>Practitioner.telecom.system</t>
   </si>
   <si>
@@ -805,13 +872,7 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J225-CanalCommunication-ROR/FHIR/JDV-J225-CanalCommunication-ROR</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
@@ -884,9 +945,6 @@
     <t>XTN.2 - but often indicated by field</t>
   </si>
   <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
     <t>./ContactPointPurpose</t>
   </si>
   <si>
@@ -912,31 +970,13 @@
     <t>Practitioner.telecom.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Time period when the contact point was/is in use</t>
   </si>
   <si>
     <t>Time period when the contact point was/is in use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>Practitioner.address</t>
@@ -1509,7 +1549,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1518,9 +1558,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.2578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.02734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="30.4921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1528,7 +1568,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.65234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="106.02734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1542,8 +1582,8 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.53515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.06640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="102.06640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1920,7 +1960,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>84</v>
@@ -2041,10 +2081,10 @@
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>100</v>
@@ -2055,7 +2095,9 @@
       <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>74</v>
@@ -2104,7 +2146,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2113,16 +2155,16 @@
         <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>74</v>
@@ -2133,21 +2175,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2194,28 +2236,28 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>114</v>
@@ -2224,19 +2266,19 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>74</v>
@@ -2247,14 +2289,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2270,19 +2312,19 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2332,7 +2374,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2350,7 +2392,7 @@
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -2361,21 +2403,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -2384,19 +2426,19 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2446,25 +2488,25 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -2475,21 +2517,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -2498,19 +2540,19 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2548,37 +2590,37 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -2589,12 +2631,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>74</v>
       </c>
@@ -2612,20 +2656,18 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2674,7 +2716,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2686,13 +2728,13 @@
         <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -2703,14 +2745,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2723,24 +2765,26 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2764,31 +2808,31 @@
         <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2800,13 +2844,13 @@
         <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2817,10 +2861,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2828,7 +2872,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>84</v>
@@ -2843,18 +2887,18 @@
         <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2878,11 +2922,13 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y12" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
@@ -2900,7 +2946,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2915,24 +2961,24 @@
         <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2949,72 +2995,76 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3032,21 +3082,21 @@
         <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3057,7 +3107,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -3066,21 +3116,23 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
@@ -3104,37 +3156,37 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>96</v>
@@ -3143,13 +3195,13 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -3157,14 +3209,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3183,17 +3235,15 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3242,7 +3292,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3251,16 +3301,16 @@
         <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3271,14 +3321,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3297,16 +3347,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3344,16 +3394,16 @@
         <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>185</v>
@@ -3365,10 +3415,10 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3392,37 +3442,39 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3446,52 +3498,52 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3499,45 +3551,45 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J18" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3574,37 +3626,37 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3615,18 +3667,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>84</v>
@@ -3641,18 +3693,18 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3700,13 +3752,13 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>96</v>
@@ -3715,35 +3767,35 @@
         <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3755,26 +3807,22 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q20" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3818,13 +3866,13 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>96</v>
@@ -3833,24 +3881,24 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>211</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3873,20 +3921,18 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3934,7 +3980,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3949,13 +3995,13 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>74</v>
@@ -3963,10 +4009,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3989,20 +4035,18 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4026,13 +4070,11 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -4050,7 +4092,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4062,16 +4104,16 @@
         <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>74</v>
@@ -4079,10 +4121,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4102,19 +4144,23 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4162,7 +4208,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4171,19 +4217,19 @@
         <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4191,10 +4237,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4202,10 +4248,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4214,19 +4260,23 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4262,19 +4312,19 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>114</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4286,16 +4336,16 @@
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4303,14 +4353,12 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4331,13 +4379,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4388,25 +4436,25 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4417,14 +4465,12 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4433,7 +4479,7 @@
         <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4445,13 +4491,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4490,19 +4536,19 @@
         <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4514,7 +4560,7 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4531,20 +4577,20 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
@@ -4559,13 +4605,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4616,7 +4662,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4628,7 +4674,7 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4645,21 +4691,23 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4668,20 +4716,18 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4706,13 +4752,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4730,28 +4776,28 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>255</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4759,10 +4805,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4785,20 +4831,18 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4822,13 +4866,11 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4846,7 +4888,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4855,19 +4897,19 @@
         <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4875,10 +4917,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4886,7 +4928,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>84</v>
@@ -4895,25 +4937,25 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -4938,13 +4980,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -4962,7 +5004,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4977,13 +5019,13 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -4991,10 +5033,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5011,24 +5053,26 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5052,13 +5096,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5076,7 +5120,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5091,13 +5135,13 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5105,10 +5149,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5131,16 +5175,16 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5190,7 +5234,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5202,16 +5246,16 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>291</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>105</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5219,10 +5263,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5233,7 +5277,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5245,20 +5289,18 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5306,28 +5348,28 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>300</v>
+        <v>98</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5335,10 +5377,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5349,7 +5391,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5361,19 +5403,19 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5398,37 +5440,37 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>96</v>
@@ -5437,13 +5479,13 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5451,10 +5493,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5477,17 +5519,19 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>313</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5512,13 +5556,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5536,7 +5580,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5551,13 +5595,13 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5565,10 +5609,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5579,7 +5623,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5588,22 +5632,20 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5652,28 +5694,28 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>326</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5681,10 +5723,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5707,16 +5749,20 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5764,7 +5810,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5776,16 +5822,16 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5793,10 +5839,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5807,7 +5853,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5819,13 +5865,13 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>100</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>101</v>
+        <v>346</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>102</v>
+        <v>347</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5876,28 +5922,28 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>103</v>
+        <v>344</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>104</v>
+        <v>349</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -5905,21 +5951,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5931,17 +5977,15 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -5978,37 +6022,37 @@
         <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6019,14 +6063,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6039,26 +6083,24 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>133</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>342</v>
+        <v>184</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6094,19 +6136,19 @@
         <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>185</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6118,7 +6160,7 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -6135,14 +6177,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6155,23 +6197,25 @@
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>347</v>
+        <v>149</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6220,7 +6264,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6232,16 +6276,16 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>349</v>
+        <v>98</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6249,10 +6293,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6260,10 +6304,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6275,18 +6319,18 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>352</v>
+        <v>152</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6310,37 +6354,37 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>356</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AA42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AG42" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>96</v>
@@ -6349,13 +6393,13 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6363,10 +6407,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6374,7 +6418,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>84</v>
@@ -6389,20 +6433,18 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6426,13 +6468,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>74</v>
+        <v>370</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>371</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>74</v>
+        <v>372</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6450,10 +6492,10 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>84</v>
@@ -6462,16 +6504,16 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>291</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6479,10 +6521,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6505,18 +6547,20 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>369</v>
+        <v>240</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6564,7 +6608,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6576,16 +6620,16 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>373</v>
+        <v>246</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>74</v>
+        <v>379</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>74</v>
+        <v>381</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6593,10 +6637,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6607,7 +6651,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6619,20 +6663,18 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6656,13 +6698,13 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -6680,30 +6722,146 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AK46" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/StructureDefinition-ror-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="383">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-practitioner</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-practitioner</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:17:29+00:00</t>
+    <t>2023-02-22T17:20:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Profil créée dans le cadre du ROR pour décrire les données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -317,13 +317,193 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Practitioner.implicitRules</t>
+    <t>Practitioner.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Practitioner.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -334,9 +514,6 @@
   </si>
   <si>
     <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Practitioner.language</t>
@@ -419,54 +596,10 @@
     <t>Practitioner.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Practitioner.extension:mailBoxMSS</t>
-  </si>
-  <si>
-    <t>mailBoxMSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/mailboxMSS}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -577,406 +710,233 @@
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
-    <t>Practitioner.name.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>Practitioner.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Practitioner.name.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.name.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>XPN.7, but often indicated by which field contains the name</t>
+    <t>A contact detail for the practitioner (that apply to all roles)</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
+  </si>
+  <si>
+    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>PRT-15, STF-10, ROL-12</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>./ContactPoints</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension:ror-telecom-usage</t>
+  </si>
+  <si>
+    <t>ror-telecom-usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-usage}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension:ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t>ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-confidentiality-level}
+</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension:ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t>ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-communication-channel}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t>ele-1
+cpt-2</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
   </si>
   <si>
     <t>unique(./use)</t>
   </si>
   <si>
-    <t>./NamePurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.name.text</t>
-  </si>
-  <si>
-    <t>Text representation of the full name</t>
-  </si>
-  <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>HumanName.text</t>
-  </si>
-  <si>
-    <t>implied by XPN.11</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>Practitioner.name.family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
-    <t>Family name (often called 'Surname')</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
-  </si>
-  <si>
-    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
-  </si>
-  <si>
-    <t>HumanName.family</t>
-  </si>
-  <si>
-    <t>XPN.1/FN.1</t>
-  </si>
-  <si>
-    <t>./part[partType = FAM]</t>
-  </si>
-  <si>
-    <t>./FamilyName</t>
-  </si>
-  <si>
-    <t>Practitioner.name.given</t>
-  </si>
-  <si>
-    <t>first name
-middle name</t>
-  </si>
-  <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
-  </si>
-  <si>
-    <t>Given name.</t>
-  </si>
-  <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
-  </si>
-  <si>
-    <t>HumanName.given</t>
-  </si>
-  <si>
-    <t>XPN.2 + XPN.3</t>
-  </si>
-  <si>
-    <t>./part[partType = GIV]</t>
-  </si>
-  <si>
-    <t>./GivenNames</t>
-  </si>
-  <si>
-    <t>Practitioner.name.prefix</t>
-  </si>
-  <si>
-    <t>Parts that come before the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>HumanName.prefix</t>
-  </si>
-  <si>
-    <t>XPN.5</t>
-  </si>
-  <si>
-    <t>./part[partType = PFX]</t>
-  </si>
-  <si>
-    <t>./TitleCode</t>
-  </si>
-  <si>
-    <t>Practitioner.name.suffix</t>
-  </si>
-  <si>
-    <t>Parts that come after the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
-  </si>
-  <si>
-    <t>http://esante.gouv.fr/fhir/ror/StructureDefinition</t>
-  </si>
-  <si>
-    <t>HumanName.suffix</t>
-  </si>
-  <si>
-    <t>XPN/4</t>
-  </si>
-  <si>
-    <t>./part[partType = SFX]</t>
-  </si>
-  <si>
-    <t>Practitioner.name.period</t>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Time period when name was/is in use</t>
-  </si>
-  <si>
-    <t>Indicates the period of time when this name was valid for the named person.</t>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
 Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
   </si>
   <si>
-    <t>Allows names to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>HumanName.period</t>
+    <t>ContactPoint.period</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
-    <t>XPN.13 + XPN.14</t>
-  </si>
-  <si>
     <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner (that apply to all roles)</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
-  </si>
-  <si>
-    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
-  </si>
-  <si>
-    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>PRT-15, STF-10, ROL-12</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.id</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:usage</t>
-  </si>
-  <si>
-    <t>usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage}
-</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:ConfidentialityLevel</t>
-  </si>
-  <si>
-    <t>ConfidentialityLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-confidentiality-level}
-</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J225-CanalCommunication-ROR/FHIR/JDV-J225-CanalCommunication-ROR</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t>ele-1
-cpt-2</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>./ContactPointType</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
   </si>
   <si>
     <t>Practitioner.address</t>
@@ -1549,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1558,9 +1518,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.25390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="34.48828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1568,7 +1528,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.02734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1582,8 +1542,8 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.06640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="102.06640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.53515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1960,7 +1920,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>84</v>
@@ -2081,10 +2041,10 @@
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>100</v>
@@ -2095,9 +2055,7 @@
       <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>74</v>
@@ -2146,7 +2104,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2155,16 +2113,16 @@
         <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>74</v>
@@ -2175,21 +2133,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2236,28 +2194,28 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>114</v>
@@ -2266,19 +2224,19 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>74</v>
@@ -2289,14 +2247,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2312,19 +2270,19 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2374,7 +2332,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2392,7 +2350,7 @@
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -2403,21 +2361,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -2426,19 +2384,19 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2488,25 +2446,25 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -2517,21 +2475,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -2540,19 +2498,19 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2590,37 +2548,37 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -2631,14 +2589,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>74</v>
       </c>
@@ -2656,18 +2612,20 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2716,7 +2674,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2728,13 +2686,13 @@
         <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -2745,14 +2703,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2765,26 +2723,24 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2808,31 +2764,31 @@
         <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2844,13 +2800,13 @@
         <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2861,10 +2817,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2872,7 +2828,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>84</v>
@@ -2887,18 +2843,18 @@
         <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2922,13 +2878,11 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
@@ -2946,7 +2900,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2961,24 +2915,24 @@
         <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2995,76 +2949,72 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3082,21 +3032,21 @@
         <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3107,7 +3057,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
@@ -3116,23 +3066,21 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
@@ -3156,13 +3104,13 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -3180,13 +3128,13 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>96</v>
@@ -3195,13 +3143,13 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -3209,14 +3157,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3235,15 +3183,17 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3292,7 +3242,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3301,16 +3251,16 @@
         <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3321,14 +3271,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3347,16 +3297,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3394,16 +3344,16 @@
         <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>185</v>
@@ -3415,10 +3365,10 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3442,39 +3392,37 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3498,52 +3446,52 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3551,45 +3499,45 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3626,37 +3574,37 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3667,18 +3615,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>84</v>
@@ -3693,18 +3641,18 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3752,13 +3700,13 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>96</v>
@@ -3767,35 +3715,35 @@
         <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3807,22 +3755,26 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="R20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3866,13 +3818,13 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>96</v>
@@ -3881,24 +3833,24 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>74</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3921,18 +3873,20 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3980,7 +3934,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3995,13 +3949,13 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>74</v>
@@ -4009,10 +3963,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4035,18 +3989,20 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4070,11 +4026,13 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -4092,7 +4050,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4104,16 +4062,16 @@
         <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>74</v>
@@ -4121,10 +4079,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4144,23 +4102,19 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>101</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4208,7 +4162,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4217,19 +4171,19 @@
         <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>248</v>
+        <v>104</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4237,10 +4191,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4248,10 +4202,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4260,23 +4214,19 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4312,19 +4262,19 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4336,16 +4286,16 @@
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4353,12 +4303,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4379,13 +4331,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4436,25 +4388,25 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4465,12 +4417,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4479,7 +4433,7 @@
         <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4491,13 +4445,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4536,19 +4490,19 @@
         <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4560,7 +4514,7 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4577,20 +4531,20 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
@@ -4605,13 +4559,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4662,7 +4616,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4674,7 +4628,7 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4691,24 +4645,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4716,18 +4668,20 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4752,13 +4706,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4776,28 +4730,28 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>255</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4805,10 +4759,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4831,18 +4785,20 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4866,11 +4822,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4888,7 +4846,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4897,19 +4855,19 @@
         <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>275</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4917,10 +4875,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4928,7 +4886,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>84</v>
@@ -4937,25 +4895,25 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -4980,13 +4938,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -5004,7 +4962,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5019,13 +4977,13 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5033,10 +4991,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5053,26 +5011,24 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5096,13 +5052,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5120,7 +5076,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5135,13 +5091,13 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>296</v>
+        <v>104</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>74</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5149,10 +5105,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5175,16 +5131,16 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5234,7 +5190,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5246,16 +5202,16 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>105</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5263,10 +5219,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5277,7 +5233,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5289,18 +5245,20 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5348,28 +5306,28 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>98</v>
+        <v>300</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5377,10 +5335,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5391,7 +5349,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5403,19 +5361,19 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>163</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5440,13 +5398,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>74</v>
+        <v>308</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5464,13 +5422,13 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>96</v>
@@ -5479,13 +5437,13 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5493,10 +5451,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5519,19 +5477,17 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5556,13 +5512,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5580,7 +5536,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5595,13 +5551,13 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5609,10 +5565,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5623,7 +5579,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5632,20 +5588,22 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5694,28 +5652,28 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5723,10 +5681,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5749,20 +5707,16 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5810,7 +5764,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5822,16 +5776,16 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5839,10 +5793,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5853,7 +5807,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5865,13 +5819,13 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>101</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
+        <v>102</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5922,28 +5876,28 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>103</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>349</v>
+        <v>104</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -5951,21 +5905,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5977,15 +5931,17 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -6022,37 +5978,37 @@
         <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6063,14 +6019,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>131</v>
+        <v>340</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6083,24 +6039,26 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>133</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>184</v>
+        <v>342</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6136,19 +6094,19 @@
         <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>185</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6160,7 +6118,7 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -6177,14 +6135,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6197,25 +6155,23 @@
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6264,7 +6220,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6276,16 +6232,16 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>98</v>
+        <v>349</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6293,10 +6249,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6304,10 +6260,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6319,18 +6275,18 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>152</v>
+        <v>352</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6354,13 +6310,13 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>74</v>
+        <v>356</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6378,13 +6334,13 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>96</v>
@@ -6393,13 +6349,13 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6407,10 +6363,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6418,7 +6374,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>84</v>
@@ -6433,18 +6389,20 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>366</v>
+        <v>286</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6468,13 +6426,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6492,10 +6450,10 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>84</v>
@@ -6504,16 +6462,16 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6521,10 +6479,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6547,20 +6505,18 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>240</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6608,7 +6564,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6620,16 +6576,16 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>379</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>381</v>
+        <v>74</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6637,10 +6593,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6651,7 +6607,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6663,18 +6619,20 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6698,13 +6656,13 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -6722,146 +6680,30 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>387</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>74</v>
+        <v>380</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>382</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="P46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AN46" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:20:54+00:00</t>
+    <t>2023-02-23T08:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/StructureDefinition-ror-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="388">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-practitioner</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-practitioner</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:32:00+00:00</t>
+    <t>2023-02-23T11:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -492,13 +492,31 @@
     <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Slicing pour gérer le code région définissant la région source des données</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.tag:codeRegion</t>
+  </si>
+  <si>
+    <t>codeRegion</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
   </si>
   <si>
     <t>Practitioner.implicitRules</t>
@@ -763,7 +781,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -776,7 +794,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -789,7 +807,7 @@
     <t>ror-telecom-communication-channel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-telecom-communication-channel}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
 </t>
   </si>
   <si>
@@ -1132,9 +1150,6 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Specific qualification the practitioner has to provide a service.</t>
@@ -1509,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1528,7 +1543,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.71484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1542,11 +1557,11 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="81.53515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2880,27 +2895,29 @@
       <c r="X12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Y12" s="2"/>
+      <c r="Y12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2929,12 +2946,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>74</v>
       </c>
@@ -2949,22 +2968,22 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2990,13 +3009,11 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -3014,13 +3031,13 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>96</v>
@@ -3029,10 +3046,10 @@
         <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -3043,10 +3060,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3063,13 +3080,13 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>164</v>
@@ -3104,31 +3121,31 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3157,14 +3174,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3183,16 +3200,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3218,13 +3235,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3242,7 +3259,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3260,7 +3277,7 @@
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3271,21 +3288,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3297,16 +3314,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3356,25 +3373,25 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3385,14 +3402,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3411,16 +3428,16 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3458,19 +3475,19 @@
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3479,10 +3496,10 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
@@ -3499,10 +3516,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3519,7 +3536,7 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>74</v>
@@ -3528,17 +3545,15 @@
         <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O18" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3586,7 +3601,7 @@
         <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3615,33 +3630,33 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>196</v>
@@ -3649,7 +3664,9 @@
       <c r="M19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>198</v>
       </c>
@@ -3688,19 +3705,19 @@
         <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3712,27 +3729,27 @@
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3740,7 +3757,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>84</v>
@@ -3755,26 +3772,22 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q20" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3818,13 +3831,13 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>96</v>
@@ -3833,24 +3846,24 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3861,7 +3874,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3873,24 +3886,26 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="P21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3934,13 +3949,13 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>96</v>
@@ -3949,24 +3964,24 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3977,7 +3992,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -3989,19 +4004,19 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -4050,7 +4065,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4062,16 +4077,16 @@
         <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>74</v>
@@ -4079,10 +4094,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4102,19 +4117,23 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4162,28 +4181,28 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4191,10 +4210,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4202,10 +4221,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4217,13 +4236,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4262,37 +4281,37 @@
         <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4303,23 +4322,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4331,13 +4348,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4376,16 +4393,16 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>114</v>
@@ -4417,20 +4434,20 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>84</v>
@@ -4445,13 +4462,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4531,13 +4548,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>74</v>
@@ -4559,13 +4576,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4645,18 +4662,20 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>84</v>
@@ -4668,20 +4687,18 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4706,13 +4723,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4730,28 +4747,28 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>255</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4759,10 +4776,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4770,7 +4787,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -4785,20 +4802,18 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4822,13 +4837,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4846,7 +4861,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4855,19 +4870,19 @@
         <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>96</v>
+        <v>261</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4875,10 +4890,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4886,7 +4901,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>84</v>
@@ -4895,25 +4910,25 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -4938,13 +4953,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -4962,7 +4977,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4977,13 +4992,13 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -4991,10 +5006,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5011,24 +5026,26 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5052,13 +5069,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>74</v>
+        <v>280</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5076,7 +5093,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5091,13 +5108,13 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>104</v>
+        <v>282</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>104</v>
+        <v>283</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>74</v>
+        <v>284</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5202,16 +5219,16 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>291</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>104</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5219,10 +5236,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5233,7 +5250,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5245,20 +5262,18 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5306,28 +5321,28 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>300</v>
+        <v>98</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5335,10 +5350,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5349,7 +5364,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5361,19 +5376,19 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>163</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5398,13 +5413,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>308</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5422,13 +5437,13 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>96</v>
@@ -5437,13 +5452,13 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5451,10 +5466,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5477,17 +5492,19 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>313</v>
+        <v>169</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5512,13 +5529,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5536,7 +5553,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5551,13 +5568,13 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5565,10 +5582,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5579,7 +5596,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5588,22 +5605,20 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5652,28 +5667,28 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>326</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5681,10 +5696,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5707,16 +5722,20 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5764,7 +5783,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5776,16 +5795,16 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>332</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5793,10 +5812,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5807,7 +5826,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5819,13 +5838,13 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>102</v>
+        <v>339</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5876,28 +5895,28 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>103</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>104</v>
+        <v>341</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -5905,21 +5924,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5931,17 +5950,15 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -5978,37 +5995,37 @@
         <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6019,14 +6036,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6039,26 +6056,24 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>342</v>
+        <v>109</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O40" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6094,19 +6109,19 @@
         <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>114</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6135,14 +6150,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6155,23 +6170,25 @@
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>347</v>
+        <v>198</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6220,7 +6237,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6232,16 +6249,16 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>348</v>
+        <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>349</v>
+        <v>98</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6249,10 +6266,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6260,10 +6277,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6275,18 +6292,18 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6310,13 +6327,13 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>356</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6334,13 +6351,13 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>96</v>
@@ -6349,13 +6366,13 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6363,10 +6380,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6374,7 +6391,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>84</v>
@@ -6389,20 +6406,18 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>286</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6426,13 +6441,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>362</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>74</v>
+        <v>363</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6450,10 +6465,10 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>84</v>
@@ -6462,16 +6477,16 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>291</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6479,10 +6494,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6505,18 +6520,20 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6564,7 +6581,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6576,16 +6593,16 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>74</v>
+        <v>370</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>74</v>
+        <v>372</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6593,10 +6610,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6607,7 +6624,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6619,20 +6636,18 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="N45" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>379</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6656,13 +6671,13 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -6680,30 +6695,146 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AK46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/StructureDefinition-ror-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="397">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-practitioner</t>
+    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-practitioner</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T11:20:10+00:00</t>
+    <t>2023-02-23T15:09:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil créée dans le cadre du ROR pour décrire les données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel</t>
+    <t>Extension créée dans le cadre du ROR</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -317,26 +317,106 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Practitioner.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>Practitioner.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>Practitioner.meta.extension</t>
+    <t>Practitioner.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Practitioner.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Practitioner.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Practitioner.extension</t>
   </si>
   <si>
     <t>extensions
@@ -350,7 +430,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -366,258 +446,27 @@
     <t>open</t>
   </si>
   <si>
-    <t>Element.extension</t>
+    <t>DomainResource.extension</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Practitioner.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Practitioner.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
+    <t>Practitioner.extension:mailBoxMSS</t>
+  </si>
+  <si>
+    <t>mailBoxMSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/mailboxMSS}
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Practitioner.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Practitioner.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Practitioner.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Practitioner.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Slicing pour gérer le code région définissant la région source des données</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Practitioner.meta.tag:codeRegion</t>
-  </si>
-  <si>
-    <t>codeRegion</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
-  </si>
-  <si>
-    <t>Practitioner.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Practitioner.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Practitioner.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Practitioner.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Practitioner.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -728,6 +577,228 @@
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
+    <t>Practitioner.name.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Practitioner.name.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./NamePurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>./FamilyName</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>./GivenNames</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>./TitleCode</t>
+  </si>
+  <si>
+    <t>Practitioner.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>http://esante.gouv.fr/fhir/ror/StructureDefinition</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>Practitioner.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
     <t>Practitioner.telecom</t>
   </si>
   <si>
@@ -766,54 +837,32 @@
     <t>Practitioner.telecom.extension</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t>Practitioner.telecom.extension:ror-telecom-usage</t>
-  </si>
-  <si>
-    <t>ror-telecom-usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-usage}
+    <t>Practitioner.telecom.extension:usage</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:ror-telecom-confidentiality-level</t>
-  </si>
-  <si>
-    <t>ror-telecom-confidentiality-level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-confidentiality-level}
+    <t>Practitioner.telecom.extension:ConfidentialityLevel</t>
+  </si>
+  <si>
+    <t>ConfidentialityLevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-confidentiality-level}
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:ror-telecom-communication-channel</t>
-  </si>
-  <si>
-    <t>ror-telecom-communication-channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
-  </si>
-  <si>
     <t>Practitioner.telecom.system</t>
   </si>
   <si>
@@ -823,13 +872,7 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J225-CanalCommunication-ROR/FHIR/JDV-J225-CanalCommunication-ROR</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
@@ -902,9 +945,6 @@
     <t>XTN.2 - but often indicated by field</t>
   </si>
   <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
     <t>./ContactPointPurpose</t>
   </si>
   <si>
@@ -930,31 +970,13 @@
     <t>Practitioner.telecom.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Time period when the contact point was/is in use</t>
   </si>
   <si>
     <t>Time period when the contact point was/is in use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>Practitioner.address</t>
@@ -1150,6 +1172,9 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Specific qualification the practitioner has to provide a service.</t>
@@ -1533,9 +1558,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.25390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.02734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="34.48828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1543,7 +1568,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="106.02734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1557,11 +1582,11 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.53515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.06640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="102.06640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1935,7 +1960,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>84</v>
@@ -2056,10 +2081,10 @@
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>100</v>
@@ -2070,7 +2095,9 @@
       <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>74</v>
@@ -2119,7 +2146,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2128,16 +2155,16 @@
         <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>74</v>
@@ -2148,21 +2175,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2209,28 +2236,28 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>114</v>
@@ -2239,19 +2266,19 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>74</v>
@@ -2262,14 +2289,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2285,19 +2312,19 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2347,7 +2374,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2365,7 +2392,7 @@
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -2376,21 +2403,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -2399,19 +2426,19 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2461,25 +2488,25 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -2490,21 +2517,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -2513,19 +2540,19 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2563,37 +2590,37 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -2604,12 +2631,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>74</v>
       </c>
@@ -2627,20 +2656,18 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2689,7 +2716,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2701,13 +2728,13 @@
         <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -2718,14 +2745,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2738,24 +2765,26 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2779,31 +2808,31 @@
         <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2815,13 +2844,13 @@
         <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2832,10 +2861,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2843,7 +2872,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>84</v>
@@ -2858,18 +2887,18 @@
         <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2893,31 +2922,31 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2932,28 +2961,26 @@
         <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C13" t="s" s="2">
         <v>160</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>74</v>
       </c>
@@ -2974,22 +3001,26 @@
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="R13" t="s" s="2">
         <v>74</v>
       </c>
@@ -3009,11 +3040,13 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -3031,13 +3064,13 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>96</v>
@@ -3046,24 +3079,24 @@
         <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3074,30 +3107,32 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
@@ -3145,13 +3180,13 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>96</v>
@@ -3160,13 +3195,13 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -3174,10 +3209,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3200,17 +3235,15 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3235,13 +3268,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3259,7 +3292,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3268,16 +3301,16 @@
         <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3288,21 +3321,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3314,16 +3347,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3361,37 +3394,37 @@
         <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3402,44 +3435,46 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3463,13 +3498,13 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>74</v>
@@ -3487,28 +3522,28 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3516,21 +3551,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3539,21 +3574,23 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3589,37 +3626,37 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3630,46 +3667,44 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J19" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3705,40 +3740,40 @@
         <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3746,21 +3781,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3772,18 +3807,18 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3831,7 +3866,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3846,24 +3881,24 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3874,7 +3909,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3886,26 +3921,22 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3949,13 +3980,13 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>96</v>
@@ -3964,24 +3995,24 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3992,7 +4023,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4004,20 +4035,18 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4041,13 +4070,11 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -4065,7 +4092,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4080,13 +4107,13 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>74</v>
@@ -4094,10 +4121,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4120,19 +4147,19 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4181,28 +4208,28 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4210,10 +4237,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4233,19 +4260,23 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4293,28 +4324,28 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4322,10 +4353,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4333,10 +4364,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4348,13 +4379,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4393,37 +4424,37 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4434,23 +4465,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4462,13 +4491,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4507,19 +4536,19 @@
         <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4531,7 +4560,7 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4548,20 +4577,20 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
@@ -4576,13 +4605,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>19</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4633,7 +4662,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4645,7 +4674,7 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4662,13 +4691,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>74</v>
@@ -4678,7 +4707,7 @@
         <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4690,13 +4719,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4747,7 +4776,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4759,7 +4788,7 @@
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4776,10 +4805,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4787,7 +4816,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -4802,16 +4831,16 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4837,13 +4866,11 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4861,7 +4888,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4870,19 +4897,19 @@
         <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4890,10 +4917,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4916,19 +4943,19 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -4977,7 +5004,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4992,13 +5019,13 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5006,10 +5033,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5032,19 +5059,19 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5069,13 +5096,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5093,7 +5120,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5108,13 +5135,13 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>196</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5122,10 +5149,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5148,16 +5175,16 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5207,7 +5234,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5222,10 +5249,10 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5236,10 +5263,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5262,16 +5289,16 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5321,7 +5348,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5333,16 +5360,16 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5350,10 +5377,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5376,19 +5403,19 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5437,7 +5464,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5452,13 +5479,13 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5466,10 +5493,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5492,19 +5519,19 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5529,13 +5556,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5553,7 +5580,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5568,13 +5595,13 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5582,10 +5609,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5608,17 +5635,17 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5667,7 +5694,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5682,13 +5709,13 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5696,10 +5723,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5722,19 +5749,19 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5783,7 +5810,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5795,16 +5822,16 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5812,10 +5839,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5838,13 +5865,13 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5895,7 +5922,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5910,13 +5937,13 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -5924,10 +5951,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5950,13 +5977,13 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6007,7 +6034,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6025,7 +6052,7 @@
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6036,14 +6063,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6062,16 +6089,16 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6109,19 +6136,19 @@
         <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6133,7 +6160,7 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -6150,14 +6177,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6176,19 +6203,19 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6237,7 +6264,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6249,7 +6276,7 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -6266,10 +6293,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6292,17 +6319,17 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6351,7 +6378,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6366,13 +6393,13 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6380,10 +6407,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6406,16 +6433,16 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6441,13 +6468,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>154</v>
+        <v>370</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6465,7 +6492,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>84</v>
@@ -6480,13 +6507,13 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6494,10 +6521,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6520,19 +6547,19 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
@@ -6581,7 +6608,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6593,16 +6620,16 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6610,10 +6637,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6636,16 +6663,16 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6695,7 +6722,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6707,13 +6734,13 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -6724,10 +6751,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6750,19 +6777,19 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6787,13 +6814,13 @@
         <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -6811,7 +6838,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6826,13 +6853,13 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>

--- a/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/StructureDefinition-ror-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="388">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-practitioner</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-practitioner</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:09:15+00:00</t>
+    <t>2023-02-24T16:18:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Profil créée dans le cadre du ROR pour décrire les données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -317,13 +317,211 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Practitioner.implicitRules</t>
+    <t>Practitioner.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Slicing pour gérer le code région définissant la région source des données</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Practitioner.meta.tag:codeRegion</t>
+  </si>
+  <si>
+    <t>codeRegion</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
+  </si>
+  <si>
+    <t>Practitioner.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -334,9 +532,6 @@
   </si>
   <si>
     <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Practitioner.language</t>
@@ -419,54 +614,10 @@
     <t>Practitioner.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Practitioner.extension:mailBoxMSS</t>
-  </si>
-  <si>
-    <t>mailBoxMSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/mailboxMSS}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -577,406 +728,233 @@
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
-    <t>Practitioner.name.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>Practitioner.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Practitioner.name.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.name.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>XPN.7, but often indicated by which field contains the name</t>
+    <t>A contact detail for the practitioner (that apply to all roles)</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
+  </si>
+  <si>
+    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>PRT-15, STF-10, ROL-12</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>./ContactPoints</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension:ror-telecom-usage</t>
+  </si>
+  <si>
+    <t>ror-telecom-usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-usage}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension:ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t>ror-telecom-confidentiality-level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-confidentiality-level}
+</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension:ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t>ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t>ele-1
+cpt-2</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
   </si>
   <si>
     <t>unique(./use)</t>
   </si>
   <si>
-    <t>./NamePurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.name.text</t>
-  </si>
-  <si>
-    <t>Text representation of the full name</t>
-  </si>
-  <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>HumanName.text</t>
-  </si>
-  <si>
-    <t>implied by XPN.11</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>Practitioner.name.family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
-    <t>Family name (often called 'Surname')</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
-  </si>
-  <si>
-    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
-  </si>
-  <si>
-    <t>HumanName.family</t>
-  </si>
-  <si>
-    <t>XPN.1/FN.1</t>
-  </si>
-  <si>
-    <t>./part[partType = FAM]</t>
-  </si>
-  <si>
-    <t>./FamilyName</t>
-  </si>
-  <si>
-    <t>Practitioner.name.given</t>
-  </si>
-  <si>
-    <t>first name
-middle name</t>
-  </si>
-  <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
-  </si>
-  <si>
-    <t>Given name.</t>
-  </si>
-  <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
-  </si>
-  <si>
-    <t>HumanName.given</t>
-  </si>
-  <si>
-    <t>XPN.2 + XPN.3</t>
-  </si>
-  <si>
-    <t>./part[partType = GIV]</t>
-  </si>
-  <si>
-    <t>./GivenNames</t>
-  </si>
-  <si>
-    <t>Practitioner.name.prefix</t>
-  </si>
-  <si>
-    <t>Parts that come before the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t>HumanName.prefix</t>
-  </si>
-  <si>
-    <t>XPN.5</t>
-  </si>
-  <si>
-    <t>./part[partType = PFX]</t>
-  </si>
-  <si>
-    <t>./TitleCode</t>
-  </si>
-  <si>
-    <t>Practitioner.name.suffix</t>
-  </si>
-  <si>
-    <t>Parts that come after the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
-  </si>
-  <si>
-    <t>http://esante.gouv.fr/fhir/ror/StructureDefinition</t>
-  </si>
-  <si>
-    <t>HumanName.suffix</t>
-  </si>
-  <si>
-    <t>XPN/4</t>
-  </si>
-  <si>
-    <t>./part[partType = SFX]</t>
-  </si>
-  <si>
-    <t>Practitioner.name.period</t>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Time period when name was/is in use</t>
-  </si>
-  <si>
-    <t>Indicates the period of time when this name was valid for the named person.</t>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
 Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
   </si>
   <si>
-    <t>Allows names to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>HumanName.period</t>
+    <t>ContactPoint.period</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
-    <t>XPN.13 + XPN.14</t>
-  </si>
-  <si>
     <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner (that apply to all roles)</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
-  </si>
-  <si>
-    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
-  </si>
-  <si>
-    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>PRT-15, STF-10, ROL-12</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.id</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:usage</t>
-  </si>
-  <si>
-    <t>usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage}
-</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:ConfidentialityLevel</t>
-  </si>
-  <si>
-    <t>ConfidentialityLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-confidentiality-level}
-</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J225-CanalCommunication-ROR/FHIR/JDV-J225-CanalCommunication-ROR</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t>ele-1
-cpt-2</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>./ContactPointType</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
   </si>
   <si>
     <t>Practitioner.address</t>
@@ -1172,9 +1150,6 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Specific qualification the practitioner has to provide a service.</t>
@@ -1558,9 +1533,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.25390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="34.48828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1568,7 +1543,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.02734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1582,11 +1557,11 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.06640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="102.06640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.53515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1960,7 +1935,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>84</v>
@@ -2081,10 +2056,10 @@
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>100</v>
@@ -2095,9 +2070,7 @@
       <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>74</v>
@@ -2146,7 +2119,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2155,16 +2128,16 @@
         <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>74</v>
@@ -2175,21 +2148,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2236,28 +2209,28 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>114</v>
@@ -2266,19 +2239,19 @@
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>74</v>
@@ -2289,14 +2262,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2312,19 +2285,19 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2374,7 +2347,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2392,7 +2365,7 @@
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -2403,21 +2376,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -2426,19 +2399,19 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2488,25 +2461,25 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -2517,21 +2490,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>74</v>
@@ -2540,19 +2513,19 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2590,37 +2563,37 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -2631,14 +2604,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>74</v>
       </c>
@@ -2656,18 +2627,20 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2716,7 +2689,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2728,13 +2701,13 @@
         <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -2745,14 +2718,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2765,26 +2738,24 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2808,31 +2779,31 @@
         <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2844,13 +2815,13 @@
         <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2861,10 +2832,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2872,7 +2843,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>84</v>
@@ -2887,18 +2858,18 @@
         <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2922,31 +2893,31 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2961,26 +2932,28 @@
         <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>74</v>
       </c>
@@ -3001,53 +2974,47 @@
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="Y13" s="2"/>
+      <c r="Z13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
       </c>
@@ -3064,13 +3031,13 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>96</v>
@@ -3079,24 +3046,24 @@
         <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3107,32 +3074,30 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
@@ -3180,13 +3145,13 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>96</v>
@@ -3195,13 +3160,13 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>74</v>
@@ -3209,10 +3174,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3235,15 +3200,17 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3268,13 +3235,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3292,7 +3259,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3301,16 +3268,16 @@
         <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3321,21 +3288,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3347,16 +3314,16 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3394,37 +3361,37 @@
         <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3435,46 +3402,44 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O17" t="s" s="2">
         <v>190</v>
       </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3498,52 +3463,52 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3551,21 +3516,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3574,23 +3539,21 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3626,37 +3589,37 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3667,44 +3630,46 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3740,40 +3705,40 @@
         <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3781,21 +3746,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3807,18 +3772,18 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3866,7 +3831,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3881,24 +3846,24 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3909,7 +3874,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3921,22 +3886,26 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="R21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3980,13 +3949,13 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>96</v>
@@ -3995,24 +3964,24 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4023,7 +3992,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4035,18 +4004,20 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4070,11 +4041,13 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -4092,7 +4065,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4107,13 +4080,13 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>74</v>
@@ -4121,10 +4094,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4147,19 +4120,19 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4208,28 +4181,28 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4237,10 +4210,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4260,23 +4233,19 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4324,28 +4293,28 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>103</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>258</v>
+        <v>104</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4353,10 +4322,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4364,10 +4333,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4379,13 +4348,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4424,37 +4393,37 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4465,22 +4434,24 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4491,13 +4462,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4536,19 +4507,19 @@
         <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4560,7 +4531,7 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4577,20 +4548,20 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
@@ -4605,13 +4576,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4662,7 +4633,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4674,7 +4645,7 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4691,13 +4662,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>74</v>
@@ -4707,7 +4678,7 @@
         <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4719,13 +4690,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4776,7 +4747,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4788,7 +4759,7 @@
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4805,10 +4776,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4816,7 +4787,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -4831,16 +4802,16 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4866,11 +4837,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4888,7 +4861,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4897,19 +4870,19 @@
         <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4917,10 +4890,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4943,19 +4916,19 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5004,7 +4977,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5019,13 +4992,13 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5033,10 +5006,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5059,19 +5032,19 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5096,13 +5069,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5120,7 +5093,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5135,13 +5108,13 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5149,10 +5122,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5175,16 +5148,16 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5234,7 +5207,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5249,10 +5222,10 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>74</v>
@@ -5263,10 +5236,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5289,16 +5262,16 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5348,7 +5321,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5360,16 +5333,16 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5377,10 +5350,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5403,19 +5376,19 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5464,7 +5437,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5479,13 +5452,13 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5493,10 +5466,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5519,19 +5492,19 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5556,13 +5529,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5580,7 +5553,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5595,13 +5568,13 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5609,10 +5582,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5635,17 +5608,17 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5694,7 +5667,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5709,13 +5682,13 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5723,10 +5696,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5749,19 +5722,19 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5810,7 +5783,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5822,16 +5795,16 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5839,10 +5812,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5865,13 +5838,13 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5922,7 +5895,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5937,13 +5910,13 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -5951,10 +5924,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5977,13 +5950,13 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6034,7 +6007,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6052,7 +6025,7 @@
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6063,14 +6036,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6089,16 +6062,16 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6136,19 +6109,19 @@
         <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6160,7 +6133,7 @@
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -6177,14 +6150,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6203,19 +6176,19 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6264,7 +6237,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6276,7 +6249,7 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -6293,10 +6266,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6319,17 +6292,17 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6378,7 +6351,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6393,13 +6366,13 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6407,10 +6380,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6433,16 +6406,16 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6468,13 +6441,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>370</v>
+        <v>154</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6492,7 +6465,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>84</v>
@@ -6507,13 +6480,13 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6521,10 +6494,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6547,19 +6520,19 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
@@ -6608,7 +6581,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6620,16 +6593,16 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6637,10 +6610,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6663,16 +6636,16 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6722,7 +6695,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6734,13 +6707,13 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -6751,10 +6724,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6777,19 +6750,19 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6814,13 +6787,13 @@
         <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -6838,7 +6811,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6853,13 +6826,13 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>

--- a/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:18:17+00:00</t>
+    <t>2023-02-27T15:55:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T15:55:53+00:00</t>
+    <t>2023-03-06T10:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>84</v>
@@ -2846,7 +2846,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
